--- a/aula_2/universidades.xlsx
+++ b/aula_2/universidades.xlsx
@@ -380,8 +380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9347760" y="2492280"/>
-          <a:ext cx="3582360" cy="0"/>
+          <a:off x="9348480" y="2492280"/>
+          <a:ext cx="3581640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -422,7 +422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="360" y="5178960"/>
-          <a:ext cx="3582720" cy="0"/>
+          <a:ext cx="3582000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -462,8 +462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8598960" y="3611520"/>
-          <a:ext cx="1402920" cy="3600"/>
+          <a:off x="8599320" y="3611520"/>
+          <a:ext cx="1402560" cy="3600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -503,7 +503,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9355320" y="2486520"/>
+          <a:off x="9356040" y="2486520"/>
           <a:ext cx="9720" cy="698040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -585,7 +585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8623080" y="3619440"/>
+          <a:off x="8623440" y="3619440"/>
           <a:ext cx="360" cy="2051640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -667,8 +667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9414720" y="4793400"/>
-          <a:ext cx="1084680" cy="7200"/>
+          <a:off x="9415440" y="4793400"/>
+          <a:ext cx="1083960" cy="7200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -708,7 +708,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9434160" y="4800600"/>
+          <a:off x="9434880" y="4800600"/>
           <a:ext cx="360" cy="888840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -943,9 +943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:colOff>113760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -954,8 +954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8308080" y="5670720"/>
-          <a:ext cx="560520" cy="168840"/>
+          <a:off x="8308440" y="5670720"/>
+          <a:ext cx="560520" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,9 +1004,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1016,7 +1016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13133880" y="5741640"/>
-          <a:ext cx="670320" cy="168840"/>
+          <a:ext cx="669960" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,9 +1065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>626760</xdr:colOff>
+      <xdr:colOff>626400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1077,7 +1077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12238920" y="5694480"/>
-          <a:ext cx="560520" cy="168840"/>
+          <a:ext cx="560160" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1126,9 +1126,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>370440</xdr:colOff>
+      <xdr:colOff>370080</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1138,7 +1138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11016720" y="5703480"/>
-          <a:ext cx="560520" cy="168840"/>
+          <a:ext cx="560160" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,9 +1187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
+      <xdr:colOff>48960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1198,8 +1198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9155520" y="5703840"/>
-          <a:ext cx="717840" cy="168840"/>
+          <a:off x="9156240" y="5703840"/>
+          <a:ext cx="716760" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,9 +1248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1082880</xdr:colOff>
+      <xdr:colOff>1082520</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1260,7 +1260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10199520" y="5703840"/>
-          <a:ext cx="707400" cy="168840"/>
+          <a:ext cx="707040" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1309,9 +1309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>748440</xdr:colOff>
+      <xdr:colOff>748080</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1320,8 +1320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8942400" y="2427840"/>
-          <a:ext cx="560520" cy="142560"/>
+          <a:off x="8943120" y="2427840"/>
+          <a:ext cx="560160" cy="142200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,9 +1374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>604800</xdr:colOff>
+      <xdr:colOff>604440</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1385,8 +1385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8798760" y="3128400"/>
-          <a:ext cx="560520" cy="142560"/>
+          <a:off x="8799480" y="3128400"/>
+          <a:ext cx="560160" cy="142200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1439,9 +1439,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>119160</xdr:colOff>
+      <xdr:colOff>118800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1450,8 +1450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8313120" y="3556440"/>
-          <a:ext cx="560520" cy="142560"/>
+          <a:off x="8313480" y="3556440"/>
+          <a:ext cx="560520" cy="142200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1504,9 +1504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>916560</xdr:colOff>
+      <xdr:colOff>916200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1515,8 +1515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9110520" y="4755960"/>
-          <a:ext cx="560520" cy="142560"/>
+          <a:off x="9111240" y="4755960"/>
+          <a:ext cx="560160" cy="142200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1569,9 +1569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>476280</xdr:colOff>
+      <xdr:colOff>475920</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1581,7 +1581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12088440" y="5167440"/>
-          <a:ext cx="560520" cy="142560"/>
+          <a:ext cx="560160" cy="142200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,8 +1645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9187200" y="3183120"/>
-          <a:ext cx="2019960" cy="11160"/>
+          <a:off x="9187920" y="3183120"/>
+          <a:ext cx="2019240" cy="11160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1686,7 +1686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9203040" y="3182760"/>
+          <a:off x="9203760" y="3182760"/>
           <a:ext cx="4680" cy="393480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1717,14 +1717,14 @@
   </sheetPr>
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.46"/>
